--- a/API/Model/GenerateExcel/Templates/Faculty Student Evaluation.xlsx
+++ b/API/Model/GenerateExcel/Templates/Faculty Student Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E21A9C-B33F-4E53-BDFD-D0DC18046045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1239D3B9-959A-45D9-BC06-2543FE82DE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
+    <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -201,6 +201,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1193640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F2A3D0-E438-C99B-55F5-445E92FC1A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="1856772" cy="1855862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,5 +900,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/API/Model/GenerateExcel/Templates/Faculty Student Evaluation.xlsx
+++ b/API/Model/GenerateExcel/Templates/Faculty Student Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1239D3B9-959A-45D9-BC06-2543FE82DE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C21BD9-4801-44DE-90D7-FC1CE7635363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$J$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>Faculty Student Evaluation</t>
+  </si>
+  <si>
+    <t>Communication
+Skills</t>
   </si>
 </sst>
 </file>
@@ -161,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -177,6 +181,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,9 +219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1193640</xdr:colOff>
+      <xdr:colOff>1197450</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>47319</xdr:rowOff>
+      <xdr:rowOff>54939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -581,7 +586,7 @@
   <dimension ref="A3:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="79" zoomScaleNormal="70" zoomScaleSheetLayoutView="79" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,9 +632,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -640,7 +645,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
@@ -653,6 +658,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -680,12 +686,14 @@
         <v>7</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
@@ -894,12 +902,12 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="54" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="49" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>